--- a/machine/dataset/updated - classified.xlsx
+++ b/machine/dataset/updated - classified.xlsx
@@ -14,9 +14,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consolidated!$A$1:$U$297</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scraped!$A$1:$C$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">suburb!$A$1:$D$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">suburb!$A$1:$D$180</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1333,7 +1334,7 @@
   <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17884,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>158</v>
       </c>
@@ -17893,10 +17894,25 @@
         <v>LOW</v>
       </c>
       <c r="C244" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="D244">
+        <v>350</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J244" t="str">
         <f>VLOOKUP(A244,suburb!A:G,3,FALSE)</f>
@@ -17906,8 +17922,38 @@
         <f>VLOOKUP(A244,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>1</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>160</v>
       </c>
@@ -17916,10 +17962,25 @@
         <v>LOW</v>
       </c>
       <c r="C245" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="D245">
+        <v>300</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J245" t="str">
         <f>VLOOKUP(A245,suburb!A:G,3,FALSE)</f>
@@ -17929,8 +17990,38 @@
         <f>VLOOKUP(A245,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>1</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>1</v>
+      </c>
+      <c r="S245">
+        <v>1</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>165</v>
       </c>
@@ -17939,10 +18030,25 @@
         <v>LOW</v>
       </c>
       <c r="C246" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="D246">
+        <v>240</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J246" t="str">
         <f>VLOOKUP(A246,suburb!A:G,3,FALSE)</f>
@@ -17952,6 +18058,36 @@
         <f>VLOOKUP(A246,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>1</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
@@ -18183,7 +18319,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>183</v>
       </c>
@@ -18206,7 +18342,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -18229,7 +18365,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>185</v>
       </c>
@@ -18252,7 +18388,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>186</v>
       </c>
@@ -18261,10 +18397,25 @@
         <v>LOW</v>
       </c>
       <c r="C260" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="D260">
+        <v>700</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260">
+        <v>2</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J260" t="str">
         <f>VLOOKUP(A260,suburb!A:G,3,FALSE)</f>
@@ -18274,8 +18425,38 @@
         <f>VLOOKUP(A260,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>1</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>1</v>
+      </c>
+      <c r="U260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>198</v>
       </c>
@@ -18298,19 +18479,34 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>216</v>
       </c>
       <c r="B262" t="str">
         <f>VLOOKUP(A:A,suburb!A:C,2,FALSE)</f>
-        <v>LOW</v>
+        <v>MEDIUM</v>
       </c>
       <c r="C262" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="D262">
+        <v>350</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J262" t="str">
         <f>VLOOKUP(A262,suburb!A:G,3,FALSE)</f>
@@ -18320,8 +18516,38 @@
         <f>VLOOKUP(A262,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>1</v>
+      </c>
+      <c r="Q262">
+        <v>1</v>
+      </c>
+      <c r="R262">
+        <v>1</v>
+      </c>
+      <c r="S262">
+        <v>1</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>217</v>
       </c>
@@ -18344,7 +18570,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>218</v>
       </c>
@@ -18367,7 +18593,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>219</v>
       </c>
@@ -18390,7 +18616,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>220</v>
       </c>
@@ -18413,7 +18639,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>222</v>
       </c>
@@ -18436,7 +18662,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>223</v>
       </c>
@@ -18459,7 +18685,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>224</v>
       </c>
@@ -18482,7 +18708,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>225</v>
       </c>
@@ -18505,7 +18731,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>226</v>
       </c>
@@ -18528,7 +18754,7 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>227</v>
       </c>
@@ -18712,19 +18938,34 @@
         <v>HARARE MUNICIPALITY</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>257</v>
       </c>
       <c r="B280" t="str">
         <f>VLOOKUP(A:A,suburb!A:C,2,FALSE)</f>
-        <v>LOW</v>
+        <v>HIGH</v>
       </c>
       <c r="C280" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="D280">
+        <v>420</v>
+      </c>
+      <c r="E280">
+        <v>6</v>
+      </c>
+      <c r="F280">
+        <v>3</v>
+      </c>
+      <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J280" t="str">
         <f>VLOOKUP(A280,suburb!A:G,3,FALSE)</f>
@@ -18734,6 +18975,36 @@
         <f>VLOOKUP(A280,suburb!A:G,4,FALSE)</f>
         <v>HARARE MUNICIPALITY</v>
       </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>1</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>1</v>
+      </c>
+      <c r="S280">
+        <v>1</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
@@ -19656,6 +19927,9 @@
       </c>
       <c r="R297">
         <v>1</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
       </c>
       <c r="T297">
         <v>0</v>
@@ -20256,11 +20530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B180" sqref="A180:B180"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20285,7 +20558,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -20299,7 +20572,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -20313,7 +20586,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -20327,7 +20600,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -20341,7 +20614,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -20355,7 +20628,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -20369,7 +20642,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -20383,7 +20656,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -20397,7 +20670,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -20411,7 +20684,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -20425,7 +20698,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -20439,7 +20712,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -20453,7 +20726,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -20467,7 +20740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -20481,7 +20754,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -20495,7 +20768,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -20509,7 +20782,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -20523,7 +20796,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -20537,7 +20810,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -20551,7 +20824,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -20565,7 +20838,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -20579,7 +20852,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -20593,7 +20866,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -20607,7 +20880,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -20621,7 +20894,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -20635,7 +20908,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -20649,7 +20922,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -20663,7 +20936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -20677,7 +20950,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -20691,7 +20964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -20705,7 +20978,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -20719,7 +20992,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -20733,7 +21006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -20747,7 +21020,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -20761,7 +21034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -20775,7 +21048,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -20789,7 +21062,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -20803,7 +21076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -20817,7 +21090,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -20831,7 +21104,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -20845,7 +21118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -20859,7 +21132,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -20873,7 +21146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -20887,7 +21160,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>150</v>
       </c>
@@ -20901,7 +21174,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -20915,7 +21188,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -20929,7 +21202,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -20943,7 +21216,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -20957,7 +21230,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -20971,7 +21244,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -20985,7 +21258,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -20999,7 +21272,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -21013,7 +21286,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -21027,7 +21300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -21041,7 +21314,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -21055,7 +21328,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -21069,7 +21342,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -21083,7 +21356,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -21097,7 +21370,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -21111,7 +21384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>166</v>
       </c>
@@ -21125,7 +21398,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -21139,7 +21412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -21153,7 +21426,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -21167,7 +21440,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -21181,7 +21454,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>171</v>
       </c>
@@ -21195,7 +21468,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -21209,7 +21482,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -21223,7 +21496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -21237,7 +21510,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -21251,7 +21524,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>176</v>
       </c>
@@ -21265,7 +21538,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -21279,7 +21552,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>178</v>
       </c>
@@ -21391,7 +21664,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -21405,7 +21678,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -21419,7 +21692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -21433,7 +21706,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -21447,7 +21720,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -21461,7 +21734,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -21475,7 +21748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -21489,7 +21762,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>193</v>
       </c>
@@ -21503,7 +21776,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -21517,7 +21790,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -21531,7 +21804,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -21545,7 +21818,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -21559,7 +21832,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -21573,7 +21846,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -21587,7 +21860,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -21601,7 +21874,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -21615,7 +21888,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -21629,7 +21902,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -21643,7 +21916,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -21657,7 +21930,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -21671,7 +21944,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -21685,7 +21958,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -21699,7 +21972,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -21713,7 +21986,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -21727,7 +22000,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -21741,7 +22014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -21755,7 +22028,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -21769,7 +22042,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -21783,7 +22056,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -21797,7 +22070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -21811,12 +22084,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s">
         <v>213</v>
@@ -21825,7 +22098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -21839,7 +22112,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>218</v>
       </c>
@@ -21853,7 +22126,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -21867,7 +22140,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>220</v>
       </c>
@@ -21881,7 +22154,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -21895,7 +22168,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -21909,7 +22182,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -21923,7 +22196,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -22007,7 +22280,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>230</v>
       </c>
@@ -22021,7 +22294,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>231</v>
       </c>
@@ -22035,7 +22308,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>232</v>
       </c>
@@ -22049,7 +22322,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>233</v>
       </c>
@@ -22063,7 +22336,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>234</v>
       </c>
@@ -22077,7 +22350,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -22091,7 +22364,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -22105,7 +22378,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>237</v>
       </c>
@@ -22119,7 +22392,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>238</v>
       </c>
@@ -22133,7 +22406,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>239</v>
       </c>
@@ -22147,7 +22420,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>240</v>
       </c>
@@ -22161,7 +22434,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -22175,7 +22448,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>242</v>
       </c>
@@ -22189,7 +22462,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -22203,7 +22476,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>244</v>
       </c>
@@ -22217,7 +22490,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>245</v>
       </c>
@@ -22231,7 +22504,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>246</v>
       </c>
@@ -22245,7 +22518,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>247</v>
       </c>
@@ -22259,7 +22532,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>248</v>
       </c>
@@ -22273,7 +22546,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>249</v>
       </c>
@@ -22287,7 +22560,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>250</v>
       </c>
@@ -22301,7 +22574,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>251</v>
       </c>
@@ -22315,7 +22588,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -22329,7 +22602,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>253</v>
       </c>
@@ -22343,7 +22616,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>254</v>
       </c>
@@ -22357,7 +22630,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>255</v>
       </c>
@@ -22371,7 +22644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -22385,12 +22658,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>257</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C152" t="s">
         <v>213</v>
@@ -22399,7 +22672,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -22413,7 +22686,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>259</v>
       </c>
@@ -22427,7 +22700,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>260</v>
       </c>
@@ -22441,7 +22714,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>261</v>
       </c>
@@ -22455,7 +22728,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>262</v>
       </c>
@@ -22469,7 +22742,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -22483,7 +22756,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>264</v>
       </c>
@@ -22497,7 +22770,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>265</v>
       </c>
@@ -22511,7 +22784,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>266</v>
       </c>
@@ -22525,7 +22798,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>267</v>
       </c>
@@ -22539,7 +22812,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>268</v>
       </c>
@@ -22553,7 +22826,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>269</v>
       </c>
@@ -22567,7 +22840,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>270</v>
       </c>
@@ -22581,7 +22854,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>271</v>
       </c>
@@ -22595,7 +22868,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -22609,7 +22882,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>273</v>
       </c>
@@ -22623,7 +22896,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>274</v>
       </c>
@@ -22637,7 +22910,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>275</v>
       </c>
@@ -22651,7 +22924,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>276</v>
       </c>
@@ -22665,7 +22938,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -22679,7 +22952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>278</v>
       </c>
@@ -22693,7 +22966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>279</v>
       </c>
@@ -22707,7 +22980,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -22721,7 +22994,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -22735,7 +23008,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>282</v>
       </c>
@@ -22749,7 +23022,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>319</v>
       </c>
@@ -22763,7 +23036,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>309</v>
       </c>
@@ -22792,13 +23065,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D179">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="MOUNT PLEASANT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D180"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>